--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s1_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>396.6108472844093</v>
+        <v>188.3000000838318</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2220001220703125</v>
+        <v>0.04900002479553223</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.86084728397255</v>
+        <v>34.30000008383183</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>257.0800000004367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.67</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.75054662682651</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.87773091595747</v>
+        <v>10.68883997447805</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16.27591944140749</v>
+        <v>12.29065144902801</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22.48909622152292</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>25.04208713267367</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>205.9620000000269</v>
+        <v>156.4</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>120.4220000000032</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>77.22299999999913</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>77.52000000000409</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>219.7460000000005</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>205.9620000000432</v>
+        <v>156.4</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>219.7460000000005</v>
+        <v>109.8</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.962000000043119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>19.74600000000055</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.743</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4">
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.624000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1228,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,28 +1253,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
